--- a/test_case/integration-test-case_v2.xlsx
+++ b/test_case/integration-test-case_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{339AEC6C-2D0C-4225-B967-08CAE132D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E66835-9CD9-48CB-A844-BFCCE187F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="181">
   <si>
     <t>テストID</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>一覧画面の表ではデータがIDの降順に表示されている</t>
+  </si>
+  <si>
+    <t>呼び出したデータに対して【更新】【削除】ボタンが表示される</t>
+  </si>
+  <si>
+    <t>1.一覧画面の表の「操作」列を目視する</t>
+  </si>
+  <si>
+    <t>呼び出したデータの操作列左側へ【更新】ボタンが表示される</t>
+  </si>
+  <si>
+    <t>呼び出したデータの操作列右側へ【削除】ボタンが表示される</t>
   </si>
   <si>
     <t>DBのカラム</t>
@@ -1401,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2345,41 +2357,77 @@
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="36.75">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="45"/>
+      <c r="D27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="44">
+        <v>45058</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="36.75">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="45"/>
+      <c r="D28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="44">
+        <v>45058</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
     </row>
@@ -3947,63 +3995,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="26">
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H2" s="26">
         <v>0</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K2" s="26">
         <v>0</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="N2" s="26">
         <v>0</v>
@@ -4011,31 +4059,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E3" s="28">
         <v>1</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H3" s="27">
         <v>1</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K3" s="28">
         <v>1</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N3" s="28">
         <v>1</v>
@@ -4043,13 +4091,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H4" s="27">
         <v>2</v>
@@ -4057,13 +4105,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H5" s="27">
         <v>3</v>
@@ -4071,13 +4119,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H6" s="27">
         <v>4</v>
@@ -4085,13 +4133,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H7" s="27">
         <v>5</v>
@@ -4099,13 +4147,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H8" s="27">
         <v>6</v>
@@ -4113,13 +4161,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H9" s="27">
         <v>7</v>
@@ -4127,13 +4175,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H10" s="27">
         <v>8</v>
@@ -4141,13 +4189,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H11" s="27">
         <v>9</v>
@@ -4155,13 +4203,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H12" s="27">
         <v>10</v>
@@ -4169,13 +4217,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H13" s="27">
         <v>11</v>
@@ -4183,13 +4231,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H14" s="27">
         <v>12</v>
@@ -4197,13 +4245,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H15" s="27">
         <v>13</v>
@@ -4211,13 +4259,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H16" s="27">
         <v>14</v>
@@ -4225,7 +4273,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H17" s="27">
         <v>15</v>
@@ -4233,7 +4281,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H18" s="27">
         <v>16</v>
@@ -4241,7 +4289,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H19" s="27">
         <v>17</v>
@@ -4249,7 +4297,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H20" s="27">
         <v>18</v>
@@ -4257,7 +4305,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H21" s="27">
         <v>19</v>
@@ -4265,7 +4313,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H22" s="27">
         <v>20</v>
@@ -4273,7 +4321,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="32" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H23" s="27">
         <v>21</v>
@@ -4281,7 +4329,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H24" s="27">
         <v>22</v>
@@ -4289,7 +4337,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H25" s="27">
         <v>23</v>
@@ -4297,7 +4345,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H26" s="27">
         <v>24</v>
@@ -4305,7 +4353,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H27" s="27">
         <v>25</v>
@@ -4313,7 +4361,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H28" s="27">
         <v>26</v>
@@ -4321,7 +4369,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H29" s="27">
         <v>27</v>
@@ -4329,7 +4377,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H30" s="27">
         <v>28</v>
@@ -4337,7 +4385,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H31" s="27">
         <v>29</v>
@@ -4345,7 +4393,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="32" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H32" s="27">
         <v>30</v>
@@ -4353,7 +4401,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H33" s="27">
         <v>31</v>
@@ -4361,7 +4409,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="32" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H34" s="27">
         <v>32</v>
@@ -4369,7 +4417,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H35" s="27">
         <v>33</v>
@@ -4377,7 +4425,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="32" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H36" s="27">
         <v>34</v>
@@ -4385,7 +4433,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H37" s="27">
         <v>35</v>
@@ -4393,7 +4441,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H38" s="27">
         <v>36</v>
@@ -4401,7 +4449,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H39" s="27">
         <v>37</v>
@@ -4409,7 +4457,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="32" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H40" s="27">
         <v>38</v>
@@ -4417,7 +4465,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H41" s="27">
         <v>39</v>
@@ -4425,7 +4473,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="32" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H42" s="27">
         <v>40</v>
@@ -4433,7 +4481,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H43" s="27">
         <v>41</v>
@@ -4441,7 +4489,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H44" s="27">
         <v>42</v>
@@ -4449,7 +4497,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H45" s="27">
         <v>43</v>
@@ -4457,7 +4505,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H46" s="27">
         <v>44</v>
@@ -4465,7 +4513,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="32" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H47" s="27">
         <v>45</v>
@@ -4473,7 +4521,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H48" s="28">
         <v>46</v>

--- a/test_case/integration-test-case_v2.xlsx
+++ b/test_case/integration-test-case_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{189668E7-013C-4E67-851F-FE27240151B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA0D768-8215-4DF6-9DA9-AFE631EBB773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
   <si>
     <t>テストID</t>
   </si>
@@ -428,6 +428,16 @@
   <si>
     <t>DBカラム「delete_flag」が「0」であれば、一覧画面では「有効」、
 DBカラム「delete_flag」が「1」であれば、一覧画面では「無効」と表示されている</t>
+  </si>
+  <si>
+    <t>DBカラム「update_time」の値に対応する文字が表示される</t>
+  </si>
+  <si>
+    <t>1.DBの「id」ごとの「update_time」カラムの値を目視する
+2.一覧画面の「id」ごとの「更新日時」項目の文字を目視する</t>
+  </si>
+  <si>
+    <t>DBカラム「update_time」が「0000-00-00 00:00:00」であれば、一覧画面では「更新履歴なし」と表示される</t>
   </si>
   <si>
     <t>一覧画面の表ではデータがIDの降順に表示されている</t>
@@ -1441,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2357,7 +2367,7 @@
     </row>
     <row r="28" spans="1:15" ht="92.25">
       <c r="A28" s="4">
-        <f t="shared" ref="A28:A83" si="4">ROW()-4</f>
+        <f t="shared" ref="A28:A84" si="4">ROW()-4</f>
         <v>24</v>
       </c>
       <c r="B28" s="10">
@@ -2625,11 +2635,8 @@
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
     </row>
-    <row r="35" spans="1:14" ht="36.75">
-      <c r="A35" s="4">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
+    <row r="35" spans="1:14" ht="73.5">
+      <c r="A35" s="4"/>
       <c r="B35" s="10"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13" t="s">
@@ -2639,10 +2646,10 @@
         <v>99</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>19</v>
@@ -2654,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="43">
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="L35" s="44" t="s">
         <v>20</v>
@@ -2662,7 +2669,7 @@
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:14" ht="55.5">
+    <row r="36" spans="1:14" ht="36.75">
       <c r="A36" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2673,10 +2680,10 @@
         <v>50</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G36" s="41" t="s">
         <v>102</v>
@@ -2691,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="43">
-        <v>45058</v>
+        <v>45056</v>
       </c>
       <c r="L36" s="44" t="s">
         <v>20</v>
@@ -2710,13 +2717,13 @@
         <v>50</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>19</v>
@@ -2736,22 +2743,40 @@
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" ht="55.5">
       <c r="A38" s="4">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="44"/>
+      <c r="D38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="43">
+        <v>45058</v>
+      </c>
+      <c r="L38" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
     </row>
@@ -3612,7 +3637,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="4">
-        <f t="shared" ref="A84:A117" si="5">ROW()-4</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B84" s="10"/>
@@ -3631,7 +3656,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A85:A118" si="5">ROW()-4</f>
         <v>81</v>
       </c>
       <c r="B85" s="10"/>
@@ -4255,6 +4280,25 @@
       <c r="L117" s="44"/>
       <c r="M117" s="36"/>
       <c r="N117" s="36"/>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="4">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:I4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
@@ -4300,63 +4344,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M1" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" s="25">
         <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H2" s="25">
         <v>0</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K2" s="25">
         <v>0</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N2" s="25">
         <v>0</v>
@@ -4364,31 +4408,31 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3" s="27">
         <v>1</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H3" s="26">
         <v>1</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K3" s="27">
         <v>1</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N3" s="27">
         <v>1</v>
@@ -4396,13 +4440,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="26">
         <v>2</v>
@@ -4410,13 +4454,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H5" s="26">
         <v>3</v>
@@ -4424,13 +4468,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H6" s="26">
         <v>4</v>
@@ -4438,13 +4482,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H7" s="26">
         <v>5</v>
@@ -4452,13 +4496,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="26">
         <v>6</v>
@@ -4466,13 +4510,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H9" s="26">
         <v>7</v>
@@ -4480,13 +4524,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H10" s="26">
         <v>8</v>
@@ -4494,13 +4538,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H11" s="26">
         <v>9</v>
@@ -4508,13 +4552,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H12" s="26">
         <v>10</v>
@@ -4522,13 +4566,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H13" s="26">
         <v>11</v>
@@ -4536,13 +4580,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
@@ -4550,13 +4594,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H15" s="26">
         <v>13</v>
@@ -4564,13 +4608,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H16" s="26">
         <v>14</v>
@@ -4578,7 +4622,7 @@
     </row>
     <row r="17" spans="7:8">
       <c r="G17" s="31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H17" s="26">
         <v>15</v>
@@ -4586,7 +4630,7 @@
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H18" s="26">
         <v>16</v>
@@ -4594,7 +4638,7 @@
     </row>
     <row r="19" spans="7:8">
       <c r="G19" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H19" s="26">
         <v>17</v>
@@ -4602,7 +4646,7 @@
     </row>
     <row r="20" spans="7:8">
       <c r="G20" s="31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H20" s="26">
         <v>18</v>
@@ -4610,7 +4654,7 @@
     </row>
     <row r="21" spans="7:8">
       <c r="G21" s="31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H21" s="26">
         <v>19</v>
@@ -4618,7 +4662,7 @@
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H22" s="26">
         <v>20</v>
@@ -4626,7 +4670,7 @@
     </row>
     <row r="23" spans="7:8">
       <c r="G23" s="31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H23" s="26">
         <v>21</v>
@@ -4634,7 +4678,7 @@
     </row>
     <row r="24" spans="7:8">
       <c r="G24" s="31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H24" s="26">
         <v>22</v>
@@ -4642,7 +4686,7 @@
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="26">
         <v>23</v>
@@ -4650,7 +4694,7 @@
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="31" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H26" s="26">
         <v>24</v>
@@ -4658,7 +4702,7 @@
     </row>
     <row r="27" spans="7:8">
       <c r="G27" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H27" s="26">
         <v>25</v>
@@ -4666,7 +4710,7 @@
     </row>
     <row r="28" spans="7:8">
       <c r="G28" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H28" s="26">
         <v>26</v>
@@ -4674,7 +4718,7 @@
     </row>
     <row r="29" spans="7:8">
       <c r="G29" s="31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="26">
         <v>27</v>
@@ -4682,7 +4726,7 @@
     </row>
     <row r="30" spans="7:8">
       <c r="G30" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H30" s="26">
         <v>28</v>
@@ -4690,7 +4734,7 @@
     </row>
     <row r="31" spans="7:8">
       <c r="G31" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H31" s="26">
         <v>29</v>
@@ -4698,7 +4742,7 @@
     </row>
     <row r="32" spans="7:8">
       <c r="G32" s="31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H32" s="26">
         <v>30</v>
@@ -4706,7 +4750,7 @@
     </row>
     <row r="33" spans="7:8">
       <c r="G33" s="31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H33" s="26">
         <v>31</v>
@@ -4714,7 +4758,7 @@
     </row>
     <row r="34" spans="7:8">
       <c r="G34" s="31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H34" s="26">
         <v>32</v>
@@ -4722,7 +4766,7 @@
     </row>
     <row r="35" spans="7:8">
       <c r="G35" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H35" s="26">
         <v>33</v>
@@ -4730,7 +4774,7 @@
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H36" s="26">
         <v>34</v>
@@ -4738,7 +4782,7 @@
     </row>
     <row r="37" spans="7:8">
       <c r="G37" s="31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H37" s="26">
         <v>35</v>
@@ -4746,7 +4790,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" s="31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H38" s="26">
         <v>36</v>
@@ -4754,7 +4798,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H39" s="26">
         <v>37</v>
@@ -4762,7 +4806,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H40" s="26">
         <v>38</v>
@@ -4770,7 +4814,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" s="31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H41" s="26">
         <v>39</v>
@@ -4778,7 +4822,7 @@
     </row>
     <row r="42" spans="7:8">
       <c r="G42" s="31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H42" s="26">
         <v>40</v>
@@ -4786,7 +4830,7 @@
     </row>
     <row r="43" spans="7:8">
       <c r="G43" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H43" s="26">
         <v>41</v>
@@ -4794,7 +4838,7 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" s="31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H44" s="26">
         <v>42</v>
@@ -4802,7 +4846,7 @@
     </row>
     <row r="45" spans="7:8">
       <c r="G45" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H45" s="26">
         <v>43</v>
@@ -4810,7 +4854,7 @@
     </row>
     <row r="46" spans="7:8">
       <c r="G46" s="31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H46" s="26">
         <v>44</v>
@@ -4818,7 +4862,7 @@
     </row>
     <row r="47" spans="7:8">
       <c r="G47" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H47" s="26">
         <v>45</v>
@@ -4826,7 +4870,7 @@
     </row>
     <row r="48" spans="7:8">
       <c r="G48" s="32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H48" s="27">
         <v>46</v>

--- a/test_case/integration-test-case_v2.xlsx
+++ b/test_case/integration-test-case_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-integration-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA0D768-8215-4DF6-9DA9-AFE631EBB773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FC13E2-94B7-4D9E-8AB2-337984C62D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2130" yWindow="2790" windowWidth="22725" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="194">
   <si>
     <t>テストID</t>
   </si>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1583,11 +1583,21 @@
       <c r="G6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
+      <c r="H6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
     </row>
@@ -1733,11 +1743,21 @@
       <c r="G10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="H10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
     </row>
@@ -1763,11 +1783,21 @@
       <c r="G11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="H11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
     </row>
@@ -1793,11 +1823,21 @@
       <c r="G12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
+      <c r="H12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
@@ -1863,11 +1903,21 @@
       <c r="G14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
+      <c r="H14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
     </row>
@@ -1893,11 +1943,21 @@
       <c r="G15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
+      <c r="H15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
     </row>
@@ -2010,11 +2070,21 @@
       <c r="G18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
+      <c r="H18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
     </row>
@@ -2040,11 +2110,21 @@
       <c r="G19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
+      <c r="H19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
     </row>
@@ -2064,12 +2144,24 @@
       <c r="F20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
+      <c r="G20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="43">
+        <v>45061</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
     </row>
